--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1240511.088668272</v>
+        <v>1234789.476700387</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11270972.39713875</v>
+        <v>11270972.39713874</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>146.9469234187995</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>351.6229296948613</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>65.51651982872606</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>253.9620394059549</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.5522166772608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.7497864368978</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>173.9313784350747</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>214.56126176479</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.07069510398896</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>174.349811500722</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>139.3077688615464</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>61.60385878691272</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>28.87187436015506</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>49.22401231167122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>76.93972860841085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.81472657146851</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>25.01141625626346</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1290712416207</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>67.65708450622535</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.87954332650972</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.55093335596907</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298799</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.09581973348958</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3831710651883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.283515201396</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1333.320998260984</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D2" t="n">
-        <v>1333.320998260984</v>
+        <v>1282.512107596176</v>
       </c>
       <c r="E2" t="n">
-        <v>947.5327456627399</v>
+        <v>896.7238549979313</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>889.7783542487279</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.283515201396</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,25 +4591,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051663</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
         <v>1363.553390680693</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
         <v>201.8560754027576</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>456.5405636086444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426.815961912944</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.815961912944</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>1426.815961912944</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.532227276819</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.815961912944</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,22 +5047,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1077.677178918899</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>788.2600088819389</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998319</v>
+        <v>560.2704579839216</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5287,13 +5287,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104703</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104703</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5524,13 +5524,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5618,16 +5618,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>964.3709295897384</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C19" t="n">
-        <v>795.4347466618315</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>795.4347466618315</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>647.5216530794384</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1894.117346117923</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1894.117346117923</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1672.350730687449</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1383.247863813093</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>1128.563375607206</v>
       </c>
       <c r="W19" t="n">
-        <v>964.3709295897384</v>
+        <v>839.1462055702453</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3709295897384</v>
+        <v>611.156654672228</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.3709295897384</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="20">
@@ -5761,13 +5761,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5791,7 +5791,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5855,16 +5855,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3525.99235525114</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C22" t="n">
-        <v>3525.99235525114</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D22" t="n">
-        <v>3525.99235525114</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>3378.079261668746</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>3231.189314170836</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>3063.486477545555</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1927.179956650002</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1927.179956650002</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1705.413341219528</v>
       </c>
       <c r="U22" t="n">
-        <v>4274.768765573601</v>
+        <v>1416.310474345171</v>
       </c>
       <c r="V22" t="n">
-        <v>4225.047541016357</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W22" t="n">
-        <v>3935.630370979397</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X22" t="n">
-        <v>3707.640820081379</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y22" t="n">
-        <v>3707.640820081379</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6189,10 +6189,10 @@
         <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>631.9695437995987</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,64 +6214,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.859557377715</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>656.9233744498081</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6414,22 +6414,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1745.707322286463</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1456.290152249502</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1228.300601351485</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.508022207955</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,7 +6560,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>411.1769646560685</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,10 +6779,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1931.079409280195</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1709.312793849721</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.473983799873</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.473983799873</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X34" t="n">
-        <v>1217.484432901856</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.5269503710301</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C37" t="n">
-        <v>393.5907674431232</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839441</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>964.9679943448</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.1754152012699</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972659</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.77835475062</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V40" t="n">
-        <v>1453.060509258584</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.643339221624</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X40" t="n">
-        <v>1163.643339221624</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y40" t="n">
-        <v>1163.643339221624</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1036.495701195956</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>867.5595182680493</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>717.4428788557135</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>569.5297852733204</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1666.926296067743</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1438.936745169726</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>1218.144166026196</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277724</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563071</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483402</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542183</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919358</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320226</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.0235789048306</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>784.0235789048306</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9069394924949</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101018</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121914</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1590.533166714165</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1301.430299839809</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V46" t="n">
-        <v>1301.430299839809</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.013129802848</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>784.0235789048306</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>784.0235789048306</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,16 +8704,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>176.2173930448423</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400267</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>116.5656919961586</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>39.48321557772579</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476912</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>77.78783182310602</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944232</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.113279161384895</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>27.32829388313461</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>60.06027830989227</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>202.9136310121568</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>148.7699267806263</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.7699267806263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>164.7576090751784</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.45558211047413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>158.0525708828118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>123.7051100255851</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.2810468259682</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>159.6457400831812</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.32522828944167</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>47.16577821098087</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="H2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="I2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="J2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="J2" t="n">
-        <v>456644.0549200309</v>
-      </c>
       <c r="K2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200308</v>
@@ -26349,13 +26349,13 @@
         <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200307</v>
       </c>
       <c r="O2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="P2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.0549200308</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="P4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25090.72367499391</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-401792.4455337224</v>
       </c>
       <c r="C6" t="n">
-        <v>188175.4336808219</v>
+        <v>188175.433680822</v>
       </c>
       <c r="D6" t="n">
-        <v>188175.433680822</v>
+        <v>188175.4336808221</v>
       </c>
       <c r="E6" t="n">
-        <v>-392207.6010020834</v>
+        <v>-392879.5559043413</v>
       </c>
       <c r="F6" t="n">
-        <v>335169.8129913232</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="G6" t="n">
-        <v>335169.8129913232</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="H6" t="n">
-        <v>335169.8129913232</v>
+        <v>334497.8580890655</v>
       </c>
       <c r="I6" t="n">
-        <v>335169.8129913231</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="J6" t="n">
-        <v>158746.5937987305</v>
+        <v>158074.6388964725</v>
       </c>
       <c r="K6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890655</v>
       </c>
       <c r="L6" t="n">
-        <v>335169.8129913233</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="M6" t="n">
-        <v>205527.4981523787</v>
+        <v>204855.5432501208</v>
       </c>
       <c r="N6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890656</v>
       </c>
       <c r="O6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890651</v>
       </c>
       <c r="P6" t="n">
-        <v>335169.8129913242</v>
+        <v>334497.8580890655</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.134529538038715e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>259.929122322912</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.16124032593365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,16 +27590,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>159.5185856293582</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>95.27892931145809</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.68572197879274</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>46.53208780507995</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>44.6532749170201</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>167.3691083074718</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.4077074708227499</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28061,25 +28061,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>117.5062691663786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781683</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563565</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970301</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,7 +35178,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060965</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>728.4729760499204</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>427.0116978485618</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>668.8675274090701</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407858</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265643</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302256</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129103</v>
+        <v>591.7850509906373</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359093</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908535</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636235</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597679</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525857</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127267</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1234789.476700387</v>
+        <v>1238194.967824836</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11270972.39713874</v>
+        <v>11270972.39713875</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>351.6229296948613</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>28.13446210676943</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>253.9620394059549</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.9313784350747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>298.5978988831013</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.07069510398896</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.6509495310449</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>41.20430323174996</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>174.349811500722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>135.2146772038178</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.35006384922664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>61.60385878691272</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>43.04243904606157</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.87187436015506</v>
+        <v>88.9321526700446</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>7.601081015447265</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>57.98576519627183</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>98.12640288586344</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.41948680756548</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>25.01141625626346</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>25.0114162562631</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.87954332650972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>59.90320919298799</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>164.4366346576178</v>
       </c>
       <c r="U46" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.777806202926</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>1282.512107596176</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>896.7238549979313</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>889.7783542487279</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.4407231609042</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3182666762914</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.532227276819</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2466.35473959099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2466.35473959099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2466.35473959099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2135.291852247419</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.523196977305</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.057438716225</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.918106740413</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5047,22 +5047,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1339.447785386687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.2704579839216</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="C13" t="n">
-        <v>560.2704579839216</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1538185715858</v>
+        <v>431.9845838435969</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>284.0714902612037</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>137.1815427632934</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>137.1815427632934</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V13" t="n">
-        <v>1077.677178918899</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W13" t="n">
-        <v>788.2600088819389</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X13" t="n">
-        <v>560.2704579839216</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.2704579839216</v>
+        <v>613.6330486738366</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>1009.800763888086</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>840.8645809601795</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>1191.449228718326</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5542,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.3640755286979</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>338.7772228279862</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>190.8641292455931</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>190.8641292455931</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1894.117346117923</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1894.117346117923</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1672.350730687449</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.247863813093</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1128.563375607206</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>839.1462055702453</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>611.156654672228</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y19" t="n">
-        <v>390.3640755286979</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="20">
@@ -5764,7 +5764,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5782,10 +5782,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,40 +5831,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.7782212305366</v>
+        <v>681.2836032803262</v>
       </c>
       <c r="C22" t="n">
-        <v>241.7782212305366</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.179956650002</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.179956650002</v>
+        <v>1674.827124689061</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.413341219528</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.310474345171</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.625986139284</v>
+        <v>909.2731541783436</v>
       </c>
       <c r="W22" t="n">
-        <v>872.2088161023238</v>
+        <v>909.2731541783436</v>
       </c>
       <c r="X22" t="n">
-        <v>644.2192652043065</v>
+        <v>681.2836032803262</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.4266860607763</v>
+        <v>681.2836032803262</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,13 +5995,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>932.5990189467736</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600128</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107236</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9417306852383</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>154.1325144446286</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6566,10 +6566,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>194.6786131209838</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>194.6786131209838</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998329</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.6776738607302</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1931.079409280195</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1709.312793849721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1420.209926975365</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1165.525438769478</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>876.1082687325173</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>648.1187178345</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>427.3261386909699</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>432.2000540015823</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839441</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>709.6864413838521</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>613.848518831822</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972659</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.77835475062</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,73 +7229,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
         <v>1138.808109517387</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1895.835173990573</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,22 +7414,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7657,16 +7657,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188665</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.2000540015823</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1508.729513923788</v>
       </c>
       <c r="U46" t="n">
-        <v>1606.732307116217</v>
+        <v>1219.626647049431</v>
       </c>
       <c r="V46" t="n">
-        <v>1352.04781891033</v>
+        <v>1219.626647049431</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.630648873369</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="X46" t="n">
-        <v>834.6410979753522</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y46" t="n">
-        <v>613.848518831822</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>272.8828616575882</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,16 +8704,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>317.5146261106135</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>246.454569480844</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.2173930448423</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1155640189938</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,10 +10837,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400267</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>46.30618790178823</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11305,19 +11305,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>39.48321557772579</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704209</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>103.5507116825708</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>77.78783182310602</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>13.40079581439457</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67574440980158</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>27.32829388313461</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890336</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2043820525663</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.06027830989227</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370379</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>159.6457400831806</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.0400430627564</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>67.89940537316478</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>164.7576090751784</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>141.0143920027651</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.7051100255851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>159.6457400831812</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>55.11231461855144</v>
       </c>
       <c r="U46" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297243</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297247</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26325,16 +26325,16 @@
         <v>456644.0549200308</v>
       </c>
       <c r="F2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="G2" t="n">
         <v>456644.0549200309</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>456644.054920031</v>
+      </c>
+      <c r="I2" t="n">
         <v>456644.0549200308</v>
-      </c>
-      <c r="H2" t="n">
-        <v>456644.0549200309</v>
-      </c>
-      <c r="I2" t="n">
-        <v>456644.0549200309</v>
       </c>
       <c r="J2" t="n">
         <v>456644.0549200308</v>
@@ -26343,16 +26343,16 @@
         <v>456644.0549200308</v>
       </c>
       <c r="L2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.054920031</v>
       </c>
       <c r="O2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="P2" t="n">
         <v>456644.0549200308</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
@@ -26441,19 +26441,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
@@ -26499,13 +26499,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337224</v>
+        <v>-401792.4455337225</v>
       </c>
       <c r="C6" t="n">
+        <v>188175.4336808219</v>
+      </c>
+      <c r="D6" t="n">
         <v>188175.433680822</v>
       </c>
-      <c r="D6" t="n">
-        <v>188175.4336808221</v>
-      </c>
       <c r="E6" t="n">
-        <v>-392879.5559043413</v>
+        <v>-392274.7964923093</v>
       </c>
       <c r="F6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010974</v>
       </c>
       <c r="G6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="H6" t="n">
-        <v>334497.8580890655</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="I6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="J6" t="n">
-        <v>158074.6388964725</v>
+        <v>158679.3983085047</v>
       </c>
       <c r="K6" t="n">
-        <v>334497.8580890655</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="L6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="M6" t="n">
-        <v>204855.5432501208</v>
+        <v>205460.3026621529</v>
       </c>
       <c r="N6" t="n">
-        <v>334497.8580890656</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="O6" t="n">
-        <v>334497.8580890651</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="P6" t="n">
-        <v>334497.8580890655</v>
+        <v>335102.6175010976</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.16124032593365</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>353.7959079654923</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>95.27892931145809</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.6532749170201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>83.33247118916051</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4077074708227499</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.658852728006</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-3.774407299222456e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28787,7 +28787,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.358561997638116e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060965</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>728.4729760499204</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,16 +35424,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,10 +36132,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>654.705912666014</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,13 +36606,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37080,10 +37080,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>754.5075703690632</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>427.0116978485618</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427823</v>
+        <v>684.7056784113259</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230589</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248953</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282456</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>554.3591887900074</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38025,19 +38025,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>591.7850509906373</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707616</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
